--- a/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Gas6-Tyro3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H2">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J2">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.57419367108829</v>
+        <v>0.07610666666666667</v>
       </c>
       <c r="N2">
-        <v>1.57419367108829</v>
+        <v>0.22832</v>
       </c>
       <c r="O2">
-        <v>0.9311646781434409</v>
+        <v>0.04153709822108353</v>
       </c>
       <c r="P2">
-        <v>0.9311646781434409</v>
+        <v>0.04153709822108354</v>
       </c>
       <c r="Q2">
-        <v>16.70414844884334</v>
+        <v>0.9349693598755556</v>
       </c>
       <c r="R2">
-        <v>16.70414844884334</v>
+        <v>8.414724238880002</v>
       </c>
       <c r="S2">
-        <v>0.1065560958379667</v>
+        <v>0.005315044298528066</v>
       </c>
       <c r="T2">
-        <v>0.1065560958379667</v>
+        <v>0.005315044298528066</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.6112410154052</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H3">
-        <v>10.6112410154052</v>
+        <v>36.854959</v>
       </c>
       <c r="I3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J3">
-        <v>0.1144331377027945</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.116370530967701</v>
+        <v>1.639501</v>
       </c>
       <c r="N3">
-        <v>0.116370530967701</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O3">
-        <v>0.06883532185655901</v>
+        <v>0.8947982752789682</v>
       </c>
       <c r="P3">
-        <v>0.06883532185655901</v>
+        <v>0.8947982752789683</v>
       </c>
       <c r="Q3">
-        <v>1.23483575118895</v>
+        <v>20.14124737848633</v>
       </c>
       <c r="R3">
-        <v>1.23483575118895</v>
+        <v>181.271226406377</v>
       </c>
       <c r="S3">
-        <v>0.007877041864827799</v>
+        <v>0.1144974655196355</v>
       </c>
       <c r="T3">
-        <v>0.007877041864827799</v>
+        <v>0.1144974655196355</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.2363611481037</v>
+        <v>12.28498633333333</v>
       </c>
       <c r="H4">
-        <v>64.2363611481037</v>
+        <v>36.854959</v>
       </c>
       <c r="I4">
-        <v>0.6927340873810787</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="J4">
-        <v>0.6927340873810787</v>
+        <v>0.1279589698403688</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.57419367108829</v>
+        <v>0.11665</v>
       </c>
       <c r="N4">
-        <v>1.57419367108829</v>
+        <v>0.34995</v>
       </c>
       <c r="O4">
-        <v>0.9311646781434409</v>
+        <v>0.06366462649994824</v>
       </c>
       <c r="P4">
-        <v>0.9311646781434409</v>
+        <v>0.06366462649994825</v>
       </c>
       <c r="Q4">
-        <v>101.1204731730866</v>
+        <v>1.433043655783333</v>
       </c>
       <c r="R4">
-        <v>101.1204731730866</v>
+        <v>12.89739290205</v>
       </c>
       <c r="S4">
-        <v>0.6450495135151925</v>
+        <v>0.008146460022205223</v>
       </c>
       <c r="T4">
-        <v>0.6450495135151925</v>
+        <v>0.008146460022205223</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.2363611481037</v>
+        <v>65.605124</v>
       </c>
       <c r="H5">
-        <v>64.2363611481037</v>
+        <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J5">
-        <v>0.6927340873810787</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.116370530967701</v>
+        <v>0.07610666666666667</v>
       </c>
       <c r="N5">
-        <v>0.116370530967701</v>
+        <v>0.22832</v>
       </c>
       <c r="O5">
-        <v>0.06883532185655901</v>
+        <v>0.04153709822108353</v>
       </c>
       <c r="P5">
-        <v>0.06883532185655901</v>
+        <v>0.04153709822108354</v>
       </c>
       <c r="Q5">
-        <v>7.475219454237827</v>
+        <v>4.992987303893334</v>
       </c>
       <c r="R5">
-        <v>7.475219454237827</v>
+        <v>44.93688573504</v>
       </c>
       <c r="S5">
-        <v>0.04768457386588622</v>
+        <v>0.0283837629777659</v>
       </c>
       <c r="T5">
-        <v>0.04768457386588622</v>
+        <v>0.02838376297776591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.8811408249486</v>
+        <v>65.605124</v>
       </c>
       <c r="H6">
-        <v>17.8811408249486</v>
+        <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.1928327749161268</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J6">
-        <v>0.1928327749161268</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.57419367108829</v>
+        <v>1.639501</v>
       </c>
       <c r="N6">
-        <v>1.57419367108829</v>
+        <v>4.918502999999999</v>
       </c>
       <c r="O6">
-        <v>0.9311646781434409</v>
+        <v>0.8947982752789682</v>
       </c>
       <c r="P6">
-        <v>0.9311646781434409</v>
+        <v>0.8947982752789683</v>
       </c>
       <c r="Q6">
-        <v>28.14837871847253</v>
+        <v>107.559666403124</v>
       </c>
       <c r="R6">
-        <v>28.14837871847253</v>
+        <v>968.0369976281158</v>
       </c>
       <c r="S6">
-        <v>0.1795590687902818</v>
+        <v>0.611447194102271</v>
       </c>
       <c r="T6">
-        <v>0.1795590687902818</v>
+        <v>0.6114471941022711</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.8811408249486</v>
+        <v>65.605124</v>
       </c>
       <c r="H7">
-        <v>17.8811408249486</v>
+        <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.1928327749161268</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="J7">
-        <v>0.1928327749161268</v>
+        <v>0.6833352399026945</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.116370530967701</v>
+        <v>0.11665</v>
       </c>
       <c r="N7">
-        <v>0.116370530967701</v>
+        <v>0.34995</v>
       </c>
       <c r="O7">
-        <v>0.06883532185655901</v>
+        <v>0.06366462649994824</v>
       </c>
       <c r="P7">
-        <v>0.06883532185655901</v>
+        <v>0.06366462649994825</v>
       </c>
       <c r="Q7">
-        <v>2.080837852107503</v>
+        <v>7.6528377146</v>
       </c>
       <c r="R7">
-        <v>2.080837852107503</v>
+        <v>68.8755394314</v>
       </c>
       <c r="S7">
-        <v>0.01327370612584499</v>
+        <v>0.04350428282265757</v>
       </c>
       <c r="T7">
-        <v>0.01327370612584499</v>
+        <v>0.04350428282265758</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>18.11712033333333</v>
+      </c>
+      <c r="H8">
+        <v>54.351361</v>
+      </c>
+      <c r="I8">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="J8">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.07610666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.22832</v>
+      </c>
+      <c r="O8">
+        <v>0.04153709822108353</v>
+      </c>
+      <c r="P8">
+        <v>0.04153709822108354</v>
+      </c>
+      <c r="Q8">
+        <v>1.378833638168889</v>
+      </c>
+      <c r="R8">
+        <v>12.40950274352</v>
+      </c>
+      <c r="S8">
+        <v>0.007838290944789564</v>
+      </c>
+      <c r="T8">
+        <v>0.007838290944789566</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>18.11712033333333</v>
+      </c>
+      <c r="H9">
+        <v>54.351361</v>
+      </c>
+      <c r="I9">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="J9">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.639501</v>
+      </c>
+      <c r="N9">
+        <v>4.918502999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.8947982752789682</v>
+      </c>
+      <c r="P9">
+        <v>0.8947982752789683</v>
+      </c>
+      <c r="Q9">
+        <v>29.70303690362033</v>
+      </c>
+      <c r="R9">
+        <v>267.327332132583</v>
+      </c>
+      <c r="S9">
+        <v>0.1688536156570616</v>
+      </c>
+      <c r="T9">
+        <v>0.1688536156570616</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>18.11712033333333</v>
+      </c>
+      <c r="H10">
+        <v>54.351361</v>
+      </c>
+      <c r="I10">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="J10">
+        <v>0.1887057902569366</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.11665</v>
+      </c>
+      <c r="N10">
+        <v>0.34995</v>
+      </c>
+      <c r="O10">
+        <v>0.06366462649994824</v>
+      </c>
+      <c r="P10">
+        <v>0.06366462649994825</v>
+      </c>
+      <c r="Q10">
+        <v>2.113362086883333</v>
+      </c>
+      <c r="R10">
+        <v>19.02025878195</v>
+      </c>
+      <c r="S10">
+        <v>0.01201388365508544</v>
+      </c>
+      <c r="T10">
+        <v>0.01201388365508544</v>
       </c>
     </row>
   </sheetData>
